--- a/4-Te-dhenat-per-kataster/regjistri/18-Koordinatat-e-ndërtesës-743-0-Djellza-leg.xlsx
+++ b/4-Te-dhenat-per-kataster/regjistri/18-Koordinatat-e-ndërtesës-743-0-Djellza-leg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Ferizaj\Ingjinierike\565-6-Shefkia1\4-Te-dhenat-per-kataster\regjistri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Ferizaj\Ingjinierike\743-0-Djellza-leg\4-Te-dhenat-per-kataster\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Nr</t>
   </si>
@@ -75,10 +75,10 @@
 </t>
   </si>
   <si>
-    <t>Sead Prushi</t>
+    <t>Shtëpi-Ndërtesë</t>
   </si>
   <si>
-    <t>Shtëpi-Ndërtesë</t>
+    <t>Fitore Lipovica</t>
   </si>
 </sst>
 </file>
@@ -510,6 +510,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -587,15 +596,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,7 +900,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>00565-6</a:t>
+            <a:t>0743-5</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1281,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:I18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="C14:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,112 +1298,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -1431,22 +1431,22 @@
     </row>
     <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C15" s="9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D15" s="10">
-        <v>7510843.9336000001</v>
+        <v>7511661.5650000004</v>
       </c>
       <c r="E15" s="10">
-        <v>4693754.3136</v>
+        <v>4691962.8320000004</v>
       </c>
       <c r="F15" s="10">
-        <v>580.96799999999996</v>
+        <v>617.23900000000003</v>
       </c>
       <c r="G15" s="7">
         <v>40</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>10</v>
@@ -1454,22 +1454,22 @@
     </row>
     <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C16" s="9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D16" s="10">
-        <v>7510835.4665000001</v>
+        <v>7511669.1579999998</v>
       </c>
       <c r="E16" s="10">
-        <v>4693745.7829</v>
+        <v>4691965.7479999997</v>
       </c>
       <c r="F16" s="10">
-        <v>580.96799999999996</v>
+        <v>617.60699999999997</v>
       </c>
       <c r="G16" s="7">
         <v>40</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>10</v>
@@ -1477,185 +1477,241 @@
     </row>
     <row r="17" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C17" s="9">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D17" s="10">
-        <v>7510831.7971999999</v>
+        <v>7511673.4440000001</v>
       </c>
       <c r="E17" s="10">
-        <v>4693766.6201999998</v>
+        <v>4691965.1030000001</v>
       </c>
       <c r="F17" s="10">
-        <v>580.96799999999996</v>
+        <v>617.10799999999995</v>
       </c>
       <c r="G17" s="7">
         <v>40</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="11">
-        <v>56</v>
-      </c>
-      <c r="D18" s="12">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="E18" s="12">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="F18" s="12">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="G18" s="13">
+    <row r="18" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C18" s="9">
+        <v>10</v>
+      </c>
+      <c r="D18" s="10">
+        <v>7511670.0999999996</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4691972.9309999999</v>
+      </c>
+      <c r="F18" s="10">
+        <v>622.70500000000004</v>
+      </c>
+      <c r="G18" s="7">
         <v>40</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="14" t="s">
+      <c r="H18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="43"/>
+      <c r="C19" s="9">
+        <v>302</v>
+      </c>
+      <c r="D19" s="10">
+        <v>7511674.4348999998</v>
+      </c>
+      <c r="E19" s="10">
+        <v>4691972.3898999998</v>
+      </c>
+      <c r="F19" s="10">
+        <v>617.60699999999997</v>
+      </c>
+      <c r="G19" s="7">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="43"/>
+      <c r="C20" s="9">
+        <v>303</v>
+      </c>
+      <c r="D20" s="10">
+        <v>7511670.1326000001</v>
+      </c>
+      <c r="E20" s="10">
+        <v>4691973.0373</v>
+      </c>
+      <c r="F20" s="10">
+        <v>617.60699999999997</v>
+      </c>
+      <c r="G20" s="7">
+        <v>40</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="43"/>
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10">
+        <v>7511668.6059999997</v>
+      </c>
+      <c r="E21" s="10">
+        <v>4691961.7359999996</v>
+      </c>
+      <c r="F21" s="10">
+        <v>617.13699999999994</v>
+      </c>
+      <c r="G21" s="7">
+        <v>40</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="43"/>
+      <c r="C22" s="11">
+        <v>3</v>
+      </c>
+      <c r="D22" s="12">
+        <v>7511663.0590000004</v>
+      </c>
+      <c r="E22" s="12">
+        <v>4691974.0269999998</v>
+      </c>
+      <c r="F22" s="12">
+        <v>617.13699999999994</v>
+      </c>
+      <c r="G22" s="13">
+        <v>40</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="43"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="17"/>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="43"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="17"/>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="43"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="17"/>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="43"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="17"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="43"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="43"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="43"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="43"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
@@ -1834,34 +1890,34 @@
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="30"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="26" t="s">
+      <c r="E47" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="33"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I47" s="27"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="38"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="41"/>
     </row>
     <row r="48" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="35">
-        <v>152</v>
-      </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="40"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38">
+        <v>168</v>
+      </c>
+      <c r="F48" s="38"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="43"/>
     </row>
     <row r="49" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K49" s="4"/>
